--- a/database/2023-womens-world-cup.xlsx
+++ b/database/2023-womens-world-cup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9805B35A-D3F4-6E41-AFA9-C4306E5AE768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1416FFD1-E6D3-B448-99D7-121690A6A9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="3720" windowWidth="19200" windowHeight="10080" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="219">
   <si>
     <t>A1</t>
   </si>
@@ -401,9 +401,6 @@
     <t>World Cup 2023 in AU/NZ</t>
   </si>
   <si>
-    <t>ワールドカップ 2023 オーストラリア/ニュージーランド</t>
-  </si>
-  <si>
     <t>W.C. 2023 Schedule &amp; Score Card</t>
   </si>
   <si>
@@ -422,24 +419,15 @@
     <t>2023 Schema &amp; scorekaart</t>
   </si>
   <si>
-    <t>2023年W杯スケジュールとスコアカード</t>
-  </si>
-  <si>
     <t>جام جهانی 2023 برنامه و کارت امتیاز</t>
   </si>
   <si>
     <t>استرالیا/نیوزیلند</t>
   </si>
   <si>
-    <t>オーストラリア/ニュージーランド</t>
-  </si>
-  <si>
     <t>AU/NZ</t>
   </si>
   <si>
-    <t>Australien/Neuseeland</t>
-  </si>
-  <si>
     <t>جام جهانی 2023 استرالیا/نیوزیلند</t>
   </si>
   <si>
@@ -699,6 +687,15 @@
   </si>
   <si>
     <t>Australia/Sydney</t>
+  </si>
+  <si>
+    <t>豪/新西蘭</t>
+  </si>
+  <si>
+    <t>2023女子W杯 日程・スコア</t>
+  </si>
+  <si>
+    <t>2023豪/新西蘭女子W杯</t>
   </si>
 </sst>
 </file>
@@ -708,7 +705,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +718,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -743,9 +746,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1150,7 +1154,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1217,11 +1221,11 @@
       <c r="G2" t="s">
         <v>118</v>
       </c>
-      <c r="H2" t="s">
-        <v>120</v>
+      <c r="H2" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1229,28 +1233,28 @@
         <v>108</v>
       </c>
       <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>122</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>123</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>124</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>125</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" t="s">
         <v>126</v>
-      </c>
-      <c r="H3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1258,36 +1262,36 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1295,28 +1299,28 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1324,28 +1328,28 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1353,28 +1357,28 @@
         <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1382,28 +1386,28 @@
         <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1411,28 +1415,28 @@
         <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1440,28 +1444,28 @@
         <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1469,28 +1473,28 @@
         <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1498,86 +1502,86 @@
         <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" t="s">
         <v>166</v>
       </c>
-      <c r="C15" t="s">
+      <c r="I15" t="s">
         <v>167</v>
-      </c>
-      <c r="D15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I15" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3019,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3027,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3035,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3059,7 +3063,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3067,7 +3071,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3099,7 +3103,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3123,7 +3127,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3139,7 +3143,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3155,7 +3159,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3187,7 +3191,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3203,7 +3207,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3211,7 +3215,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3219,7 +3223,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3227,7 +3231,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3259,7 +3263,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3321,116 +3325,116 @@
         <v>101</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
